--- a/biology/Microbiologie/Acidithiobacillales/Acidithiobacillales.xlsx
+++ b/biology/Microbiologie/Acidithiobacillales/Acidithiobacillales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acidithiobacillales forment une ordre de bactéries à Gram négatif, de l'embranchement des Pseudomonadota. Cet ordre est l'ordre type de la classe Acidithiobacillia abritant des bactéries du genre Acidithiobacillus utiles dans les mines.
 </t>
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie
-L'ordre Acidithiobacillales a été nommé ainsi d'après le genre type qui lui a été assigné, Acidithiobacillus[1]. Son étymologie est la suivante : A.ci.di.thi.o.ba.cil.la’les. N.L. masc. n. Acidithiobacillus, le genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe utilisé pour nommer un ordre; N.L. fem. pl. n. Acidithiobacillales, l'ordre des Acidithiobacillus[1],[2]
-Historique
-L'ordre type de cette nouvelle classe, a été classé en 2005 dans la classe des Gammaproteobacteria sur la base des analyses phylogénétiques des séquences d'ARN ribosomal 16S[1]. De nouvelles analyses phylogénétiques multiprotéines ont été ajoutées et ont permis de créer cette nouvelle classe en 2013 parmi les Pseudomonadota[3],[4]. À l'occasion de cette caractérisation, l'ordre des Acidithiobacillales a été déplacé de la classe Gammaproteobacteria vers la nouvelle classe Acidithiobacillia[3].
-Liste des familles
-Selon la LPSN  (11 août 2022)[5] :
-Acidithiobacillaceae
-Thermithiobacillaceae</t>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre Acidithiobacillales a été nommé ainsi d'après le genre type qui lui a été assigné, Acidithiobacillus. Son étymologie est la suivante : A.ci.di.thi.o.ba.cil.la’les. N.L. masc. n. Acidithiobacillus, le genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe utilisé pour nommer un ordre; N.L. fem. pl. n. Acidithiobacillales, l'ordre des Acidithiobacillus,
+</t>
         </is>
       </c>
     </row>
@@ -545,12 +557,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre type de cette nouvelle classe, a été classé en 2005 dans la classe des Gammaproteobacteria sur la base des analyses phylogénétiques des séquences d'ARN ribosomal 16S. De nouvelles analyses phylogénétiques multiprotéines ont été ajoutées et ont permis de créer cette nouvelle classe en 2013 parmi les Pseudomonadota,. À l'occasion de cette caractérisation, l'ordre des Acidithiobacillales a été déplacé de la classe Gammaproteobacteria vers la nouvelle classe Acidithiobacillia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acidithiobacillales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidithiobacillales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (11 août 2022) :
+Acidithiobacillaceae
+Thermithiobacillaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acidithiobacillales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidithiobacillales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de sa description de 2013, l'ordre Acidithiobacillales comprend les deux familles Acidithiobacillaceae et Thermithiobacillaceae[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa description de 2013, l'ordre Acidithiobacillales comprend les deux familles Acidithiobacillaceae et Thermithiobacillaceae.
 </t>
         </is>
       </c>
